--- a/Found Supplier Items 03.xlsx
+++ b/Found Supplier Items 03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7574" uniqueCount="3039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7576" uniqueCount="3040">
   <si>
     <t>Supplier Item Number</t>
   </si>
@@ -9131,6 +9131,9 @@
   </si>
   <si>
     <t>Need MFG Part Numbers</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -9969,7 +9972,7 @@
   <dimension ref="A1:D1899"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9997,8 +10000,12 @@
       <c r="A2" s="2" t="s">
         <v>3038</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3039</v>
+      </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
